--- a/biology/Histoire de la zoologie et de la botanique/Louis_Ventenat/Louis_Ventenat.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Ventenat/Louis_Ventenat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Ventenat est un moine génovéfain et un naturaliste français, né le 18 février 1765[1] à Limoges et mort le 8 août 1794 à Port-Louis de l'Île Maurice (anciennement Île de France[2],[3]).
-Neuvième de treize enfants, il est le frère du botaniste Étienne Pierre Ventenat (1757-1808). Profès à Sainte-Geneviève le 3 mars 1786[4], puis chanoine régulier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Ventenat est un moine génovéfain et un naturaliste français, né le 18 février 1765 à Limoges et mort le 8 août 1794 à Port-Louis de l'Île Maurice (anciennement Île de France,).
+Neuvième de treize enfants, il est le frère du botaniste Étienne Pierre Ventenat (1757-1808). Profès à Sainte-Geneviève le 3 mars 1786, puis chanoine régulier.
 C'est par l'intermédiaire de son frère qu'il rejoint l’expédition d'exploration et de secours conduite par le contre-amiral Antoine Bruny d'Entrecasteaux (1737-1793) à la recherche de Jean-François de Galaup, comte de La Pérouse (1741-1788), dont on était sans nouvelles depuis trois ans. Il sert comme aumônier et naturaliste à bord de La Recherche, une des deux frégates de l'expédition, avant d'être transféré à bord de L'Espérance, le 20 août 1793.
 À Surabaya, il est interné sur ordre du gouverneur hollandais, en compagnie de sept autres membres de l’expédition, suspecté d'avoir de la sympathie pour les idées révolutionnaires et transféré à Semarang. Ses travaux scientifiques sont confisqués. Gravement malade, il obtient de pouvoir embarquer pour l’Île-de-France, où il décède en 1794
 </t>
@@ -514,7 +526,9 @@
           <t>Honneurs et postérité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Anton Wilhelm Miquel (1811-1871) lui dédie l’espèce Peperomia ventenatii. Ses collections sont conservées, via Benjamin Delessert (1773-1784), dans l’herbier de Genève.
 Il donne son nom au Cap Ventenat, situé à l'extrémité sud de la grande îles d'Entrecasteaux, découverte en juin 1793.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Nationaal herbarium Nederland</t>
         </is>
